--- a/documentation.xlsx
+++ b/documentation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kerembukucu/Desktop/foneria/2025-FONERIA/matrix/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kerembukucu/Desktop/airflow-docker-project/dags/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4884912-39A5-FA4E-B9D5-77D9404A7260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5A49E0-D221-BB4B-8FD7-EFAD6AF7FDA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{97C4EE77-ED23-2B4C-A607-4407D8229770}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="83">
   <si>
     <t>Tablo</t>
   </si>
@@ -49,21 +49,6 @@
     <t>Gerekli_Input_Data</t>
   </si>
   <si>
-    <t>AGE_RANGE</t>
-  </si>
-  <si>
-    <t>OCCUPATION</t>
-  </si>
-  <si>
-    <t>EDUCATION</t>
-  </si>
-  <si>
-    <t>BIT_SCORE</t>
-  </si>
-  <si>
-    <t>SURVEY_RISK</t>
-  </si>
-  <si>
     <t>Alabilecegi_Degerler</t>
   </si>
   <si>
@@ -94,18 +79,6 @@
     <t>Musterinin Anket Risk Skorunu belirtir</t>
   </si>
   <si>
-    <t>year_month_based</t>
-  </si>
-  <si>
-    <t>statik</t>
-  </si>
-  <si>
-    <t>FUND_BALANCE_RATIO</t>
-  </si>
-  <si>
-    <t>INTERESTED_FUND_COUNT</t>
-  </si>
-  <si>
     <t>Musterinin Verisi Olan Her Ay Icin Ay Sonu Fon Bakiyesinin Hesap bakiyesine oranini hesaplar</t>
   </si>
   <si>
@@ -121,57 +94,21 @@
     <t>Pozitif bir tamsayi</t>
   </si>
   <si>
-    <t>OUTSTANDING-TREND</t>
-  </si>
-  <si>
-    <t>AVERAGE_OUTSTANDING</t>
-  </si>
-  <si>
     <t>Pozitif bir sayi</t>
   </si>
   <si>
-    <t>INTERESTED_FUND_RISK</t>
-  </si>
-  <si>
     <t>Musterinin verisi olan her ay icin, open butonuna tikladigi fonlarin, kac defa tikladigi ile agirliklandirilarak bu fonlarin ortalama riskini belirtir</t>
   </si>
   <si>
-    <t>OWNED_FUND_COUNT</t>
-  </si>
-  <si>
-    <t>OWNED_FUND_RISK</t>
-  </si>
-  <si>
     <t>Musterinin verisi olan her ay icin, sahip oldugu fonlarin toplam sayisini belirtir</t>
   </si>
   <si>
     <t>Musterinin verisi olan her ay icin, sahip oldugu fonlari, ne kadar miktar sahip olduguna gore agirliklandirarak  bu fonlarin ortalama riskini belirtir</t>
   </si>
   <si>
-    <t>AVERAGE_OUTSTANDING_CATEGORY</t>
-  </si>
-  <si>
-    <t>High, Medium, Low</t>
-  </si>
-  <si>
-    <t>ACTIVITY_SCORE</t>
-  </si>
-  <si>
     <t>0 ile 100 arasinda bir sayi</t>
   </si>
   <si>
-    <t>EARLY_MORNING_ACTIVITY_PERCENTAGE</t>
-  </si>
-  <si>
-    <t>NIGHT_ACTIVITY_PERCENTAGE</t>
-  </si>
-  <si>
-    <t>WORK_TIME_ACTIVITY_PERCENTAGE</t>
-  </si>
-  <si>
-    <t>EVENING_ACTIVITY_PERCENTAGE</t>
-  </si>
-  <si>
     <t>0 ile 100 arasinda bir YUZDE</t>
   </si>
   <si>
@@ -187,27 +124,12 @@
     <t>Musterilerin verisi olan her ay icin, uygulama ici toplam click sayisina ve saatlerine gore saat 10pm-4am arasinda olan click'lerinin yuzdesi</t>
   </si>
   <si>
-    <t>TRANSACTION_VOLUME</t>
-  </si>
-  <si>
     <t>Musterinin verisi olan her ay icin yaptigi tum al-sat islemlerinin toplam miktarini belirtir</t>
   </si>
   <si>
-    <t>year_month_fund_based</t>
-  </si>
-  <si>
     <t>Musterinin verilen ay, ilgili fona kac defa tikladigini belirtir</t>
   </si>
   <si>
-    <t>FUND_OUTSTANDING</t>
-  </si>
-  <si>
-    <t>FUND_TRANSACTION_VOLUME</t>
-  </si>
-  <si>
-    <t>FUND_CLICKS</t>
-  </si>
-  <si>
     <t>Musterinin verilen ay, ilgili fon uzerinden yaptigi al-sat islemlerinin toplam miktarini belirtir</t>
   </si>
   <si>
@@ -220,21 +142,12 @@
     <t>Musterilerin verisi olan her ay icin, uygulama ici toplam click sayisina gore min-max normalizasyon kullanilarak olusturulan skoru belirtir</t>
   </si>
   <si>
-    <t>Olusturan_Python_Kodu</t>
-  </si>
-  <si>
-    <t>Musterinin verisi olan her ay icin, belirli average_outstanding verisi goz onunde bulundurularak, belirlenen thresholdara gore siniflandirildigi veriyi belirtir</t>
-  </si>
-  <si>
     <t>(-1), 0 veya 1</t>
   </si>
   <si>
     <t>Musterinin verilen ay, ilgili fonun ay sonu miktarini belirtir</t>
   </si>
   <si>
-    <t>outlier'lar cikartilip hesaplanacak</t>
-  </si>
-  <si>
     <t>member_details.csv</t>
   </si>
   <si>
@@ -262,67 +175,116 @@
     <t>monthly_outstanding_funds.csv, Fon_Detay_Tanımları.xlsx</t>
   </si>
   <si>
-    <t>yas_araligi.py</t>
-  </si>
-  <si>
-    <t>meslek.py</t>
-  </si>
-  <si>
-    <t>egitim.py</t>
-  </si>
-  <si>
-    <t>bit.py</t>
-  </si>
-  <si>
-    <t>anket_risk.py</t>
-  </si>
-  <si>
-    <t>fund_balance_ratio.py</t>
-  </si>
-  <si>
     <t>interested_fund_count</t>
   </si>
   <si>
     <t>interested_fund_risk</t>
   </si>
   <si>
-    <t>transaction_volume.py</t>
-  </si>
-  <si>
-    <t>outstanding_trend.py</t>
-  </si>
-  <si>
     <t>Musterinin verisi olan her ay icin gunluk hesap outstanding verisi kullanilarak aylik agirlikli outstanding ortalamasini belirtir</t>
   </si>
   <si>
-    <t>average_outstanding.py</t>
-  </si>
-  <si>
-    <t>average_outstanding_category.py</t>
-  </si>
-  <si>
-    <t>owned_fund_count.py</t>
-  </si>
-  <si>
-    <t>owned_fund_risk.py</t>
-  </si>
-  <si>
-    <t>activity_score.py</t>
-  </si>
-  <si>
-    <t>daily_click_seperator.py</t>
-  </si>
-  <si>
-    <t>fund_clicks.py</t>
-  </si>
-  <si>
-    <t>fund_outstanding.py</t>
-  </si>
-  <si>
-    <t>fund_transaction_volume.py</t>
-  </si>
-  <si>
     <t>Ornek: 10.⁠ ⁠ayin her bir gununun outstanding hesap volume’unun bir onceki gune gore degisim miktari pozitif veye negatif isaretiyle birlikte kaydediliyor. 10. Ayin tum gunleri icin bu degisim hesaplandiktan sonra 10. Ay icin bu degisimler toplaniyor ve overall toplam 0 dan buyukse o ayin trendi 1 oluyor, vice versa.</t>
+  </si>
+  <si>
+    <t>Olusturan_Sql_Kodu</t>
+  </si>
+  <si>
+    <t>summary_static</t>
+  </si>
+  <si>
+    <t>Musterinin kayit oldugu tarih</t>
+  </si>
+  <si>
+    <t>06.19-10.10.22 formatinda bir tarih</t>
+  </si>
+  <si>
+    <t>Hesabin isleme hazir oldugu tarih</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+09.18-27.10.22 formatinda bir tarih</t>
+  </si>
+  <si>
+    <t>summary_static.sql</t>
+  </si>
+  <si>
+    <t>summary_year_month_based</t>
+  </si>
+  <si>
+    <t>age_range</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>education</t>
+  </si>
+  <si>
+    <t>bit_score</t>
+  </si>
+  <si>
+    <t>survey_risk</t>
+  </si>
+  <si>
+    <t>reg_date</t>
+  </si>
+  <si>
+    <t>account_ready_date</t>
+  </si>
+  <si>
+    <t>interest_preference</t>
+  </si>
+  <si>
+    <t>fund_balance_ratio</t>
+  </si>
+  <si>
+    <t>summary_year_month_based.sql</t>
+  </si>
+  <si>
+    <t xml:space="preserve">average_outstanding </t>
+  </si>
+  <si>
+    <t>outstanding_trend</t>
+  </si>
+  <si>
+    <t>transaction_volume</t>
+  </si>
+  <si>
+    <t>owned_fund_count</t>
+  </si>
+  <si>
+    <t>owned_fund_risk</t>
+  </si>
+  <si>
+    <t>activity_score</t>
+  </si>
+  <si>
+    <t>fund_clicks</t>
+  </si>
+  <si>
+    <t>fund_outstanding</t>
+  </si>
+  <si>
+    <t>fund_transaction_volume</t>
+  </si>
+  <si>
+    <t>summary_year_month_fund_based</t>
+  </si>
+  <si>
+    <t>summary_year_month_fund.sql</t>
+  </si>
+  <si>
+    <t>early_morning_activity_percentage</t>
+  </si>
+  <si>
+    <t>work_time_activity_percentage</t>
+  </si>
+  <si>
+    <t>evening_activity_percentage</t>
+  </si>
+  <si>
+    <t>night_activity_percentage</t>
   </si>
 </sst>
 </file>
@@ -366,7 +328,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -405,12 +367,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -443,7 +399,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -471,10 +427,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent5" xfId="4" builtinId="45"/>
@@ -793,20 +745,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{597AA7B8-3751-1343-9D23-D1FE13947A49}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="67" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="106" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" customWidth="1"/>
     <col min="2" max="2" width="37.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" style="1" customWidth="1"/>
     <col min="4" max="4" width="28.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.83203125" customWidth="1"/>
     <col min="7" max="7" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -821,522 +773,560 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>67</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>59</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>25</v>
+        <v>12</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="G10" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="E11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="238" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="C13" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="238" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="136" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="119" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>70</v>
+      <c r="E13" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>40</v>
+        <v>21</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>71</v>
-      </c>
       <c r="F17" s="7" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>48</v>
+        <v>79</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>71</v>
-      </c>
       <c r="F20" s="7" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>92</v>
+      <c r="D21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>93</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>59</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/documentation.xlsx
+++ b/documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kerembukucu/Desktop/airflow-docker-project/dags/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5A49E0-D221-BB4B-8FD7-EFAD6AF7FDA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C7BC81-F61A-2043-8920-E36D503484EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{97C4EE77-ED23-2B4C-A607-4407D8229770}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="85">
   <si>
     <t>Tablo</t>
   </si>
@@ -285,6 +285,12 @@
   </si>
   <si>
     <t>night_activity_percentage</t>
+  </si>
+  <si>
+    <t>Musterinin faiz isteyip istemedigini belirtir.</t>
+  </si>
+  <si>
+    <t>Y,N</t>
   </si>
 </sst>
 </file>
@@ -747,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{597AA7B8-3751-1343-9D23-D1FE13947A49}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="106" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -854,20 +860,28 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="4"/>
+      <c r="C5" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="F5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="12"/>
+      <c r="G5" s="12" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
